--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:19:04+00:00</t>
+    <t>2025-01-12T13:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T13:05:41+00:00</t>
+    <t>2025-01-12T14:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,19 +58,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T14:01:50+00:00</t>
+    <t>2025-01-17T08:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>Folkehelseinstituttet</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
+  </si>
+  <si>
+    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -243,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -333,25 +336,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -363,8 +368,14 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -386,28 +397,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -429,28 +440,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T08:31:13+00:00</t>
+    <t>2025-01-27T14:21:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T14:21:49+00:00</t>
+    <t>2025-01-28T15:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:15:07+00:00</t>
+    <t>2025-01-30T10:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T10:14:07+00:00</t>
+    <t>2025-02-04T14:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:35:28+00:00</t>
+    <t>2025-02-10T09:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:13:37+00:00</t>
+    <t>2025-02-10T13:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T13:00:17+00:00</t>
+    <t>2025-02-10T13:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T13:38:57+00:00</t>
+    <t>2025-02-11T10:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T10:50:05+00:00</t>
+    <t>2025-02-11T10:57:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T10:57:33+00:00</t>
+    <t>2025-02-11T11:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T11:02:00+00:00</t>
+    <t>2025-02-11T11:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T11:10:12+00:00</t>
+    <t>2025-02-11T11:18:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T11:18:14+00:00</t>
+    <t>2025-02-13T14:32:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T14:32:56+00:00</t>
+    <t>2025-02-13T20:25:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T20:25:16+00:00</t>
+    <t>2025-02-13T20:33:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,22 +58,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T20:33:54+00:00</t>
+    <t>2025-02-14T08:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet</t>
+    <t>Folkehelseinstituttet (FHI)</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
-  </si>
-  <si>
-    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
+    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -246,7 +243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,27 +333,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -368,14 +363,8 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -397,28 +386,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -440,28 +429,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,19 +58,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-14T08:44:20+00:00</t>
+    <t>2025-02-14T09:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>Folkehelseinstituttet</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
+  </si>
+  <si>
+    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -243,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -333,25 +336,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -363,8 +368,14 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -386,28 +397,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -429,28 +440,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T13:24:00+00:00</t>
+    <t>2025-02-17T15:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T15:42:31+00:00</t>
+    <t>2025-02-17T16:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T16:04:38+00:00</t>
+    <t>2025-02-24T10:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T09:39:57+00:00</t>
+    <t>2025-03-03T07:55:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T07:55:06+00:00</t>
+    <t>2025-03-03T11:19:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T11:19:34+00:00</t>
+    <t>2025-03-03T13:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T13:58:27+00:00</t>
+    <t>2025-03-03T14:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T14:46:13+00:00</t>
+    <t>2025-03-11T13:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -424,47 +423,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T13:51:40+00:00</t>
+    <t>2025-03-11T14:01:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T14:01:39+00:00</t>
+    <t>2025-03-12T08:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T08:49:17+00:00</t>
+    <t>2025-03-12T09:16:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/currentbuild/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T09:16:28+00:00</t>
+    <t>2025-03-18T14:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
